--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_189__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_189__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,10 +6118,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>0.01381588168442249</c:v>
+                  <c:v>0.01381360180675983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.890904307365417</c:v>
+                  <c:v>-1.890902042388916</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44.8692512512207</c:v>
@@ -6130,13 +6130,13 @@
                   <c:v>0.2779155373573303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.267078399658203</c:v>
+                  <c:v>5.267076015472412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.863019585609436</c:v>
+                  <c:v>0.8630150556564331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.8880615234375</c:v>
+                  <c:v>45.88806533813477</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>34.75788879394531</c:v>
@@ -6145,28 +6145,28 @@
                   <c:v>46.17839813232422</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.76951217651367</c:v>
+                  <c:v>50.76950836181641</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4338473975658417</c:v>
+                  <c:v>0.4338496625423431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.979530215263367</c:v>
+                  <c:v>1.979532480239868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.200310826301575</c:v>
+                  <c:v>1.200313091278076</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43.7491455078125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.60946655273438</c:v>
+                  <c:v>49.60946273803711</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.52325820922852</c:v>
+                  <c:v>47.52326202392578</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.06147384643555</c:v>
+                  <c:v>51.06147766113281</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>37.94269943237305</c:v>
@@ -6178,13 +6178,13 @@
                   <c:v>51.1973762512207</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7977400422096252</c:v>
+                  <c:v>0.7977423667907715</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.75529861450195</c:v>
+                  <c:v>46.75529479980469</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.20397663116455</c:v>
+                  <c:v>13.20397567749023</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>47.62279891967773</c:v>
@@ -6196,10 +6196,10 @@
                   <c:v>-0.450991302728653</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.860719203948975</c:v>
+                  <c:v>5.860718250274658</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7048652768135071</c:v>
+                  <c:v>0.7048606872558594</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>46.56183242797852</c:v>
@@ -6217,7 +6217,7 @@
                   <c:v>4.679209232330322</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.20482873916626</c:v>
+                  <c:v>-2.204833269119263</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.4721448123455048</c:v>
@@ -6226,25 +6226,25 @@
                   <c:v>1.42549991607666</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.081689357757568</c:v>
+                  <c:v>-1.081687092781067</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.127713918685913</c:v>
+                  <c:v>3.12770938873291</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>52.43330383300781</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.35149383544922</c:v>
+                  <c:v>48.35150146484375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15.45845222473145</c:v>
+                  <c:v>15.45845127105713</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1.184103727340698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.589523315429688</c:v>
+                  <c:v>6.589524745941162</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>48.64985656738281</c:v>
@@ -6256,16 +6256,16 @@
                   <c:v>0.9984384775161743</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42.04324722290039</c:v>
+                  <c:v>42.04324340820312</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44.08526611328125</c:v>
+                  <c:v>44.08526992797852</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>42.76638412475586</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>46.05738830566406</c:v>
+                  <c:v>46.0573844909668</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>29.49629402160645</c:v>
@@ -6274,7 +6274,7 @@
                   <c:v>45.95305633544922</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.068757891654968</c:v>
+                  <c:v>-1.068755626678467</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1.133251070976257</c:v>
@@ -6286,10 +6286,10 @@
                   <c:v>49.46634292602539</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5980879068374634</c:v>
+                  <c:v>0.5980856418609619</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.9605627655982971</c:v>
+                  <c:v>0.9605650305747986</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>55.14711380004883</c:v>
@@ -6301,10 +6301,10 @@
                   <c:v>1.282864212989807</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>34.5420036315918</c:v>
+                  <c:v>34.54200744628906</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.627570629119873</c:v>
+                  <c:v>0.6275728940963745</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>51.71858215332031</c:v>
@@ -6319,28 +6319,28 @@
                   <c:v>1.404512763023376</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.634764432907104</c:v>
+                  <c:v>2.634766817092896</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11.53250885009766</c:v>
+                  <c:v>11.53250789642334</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8436805605888367</c:v>
+                  <c:v>0.8436782956123352</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1.539603471755981</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1730028241872787</c:v>
+                  <c:v>0.1730051040649414</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45.58630752563477</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42.44534683227539</c:v>
+                  <c:v>42.44534301757812</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.0702214241027832</c:v>
+                  <c:v>-0.07021914422512054</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.4073941111564636</c:v>
@@ -6349,37 +6349,37 @@
                   <c:v>46.63990020751953</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>15.221360206604</c:v>
+                  <c:v>15.22135925292969</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43.69374847412109</c:v>
+                  <c:v>43.69374465942383</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>29.51323509216309</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15.32891750335693</c:v>
+                  <c:v>15.32891941070557</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.088322713971138</c:v>
+                  <c:v>-0.08832499384880066</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.548108100891113</c:v>
+                  <c:v>1.548110365867615</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>17.43086814880371</c:v>
+                  <c:v>17.43086624145508</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45.18151473999023</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>47.22930526733398</c:v>
+                  <c:v>47.22929763793945</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45.26997756958008</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9438382983207703</c:v>
+                  <c:v>0.9438474178314209</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>27.09062194824219</c:v>
@@ -6388,13 +6388,13 @@
                   <c:v>0.5759884715080261</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.709314703941345</c:v>
+                  <c:v>1.709312438964844</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50.70856475830078</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>48.50165939331055</c:v>
+                  <c:v>48.50166320800781</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>19.60519599914551</c:v>
@@ -6406,25 +6406,25 @@
                   <c:v>2.984601974487305</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.404038667678833</c:v>
+                  <c:v>1.404040932655334</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>43.76482772827148</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>48.45999526977539</c:v>
+                  <c:v>48.45998764038086</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>13.61442375183105</c:v>
+                  <c:v>13.61442279815674</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>50.1451301574707</c:v>
+                  <c:v>50.14512634277344</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>25.29550170898438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.1483868062496185</c:v>
+                  <c:v>-0.1483890861272812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01381588168442249</v>
+        <v>0.01381360180675983</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>-1.890904307365417</v>
+        <v>-1.890902042388916</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.267078399658203</v>
+        <v>5.267076015472412</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.863019585609436</v>
+        <v>0.8630150556564331</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>45.8880615234375</v>
+        <v>45.88806533813477</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.76951217651367</v>
+        <v>50.76950836181641</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4338473975658417</v>
+        <v>0.4338496625423431</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.979530215263367</v>
+        <v>1.979532480239868</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.200310826301575</v>
+        <v>1.200313091278076</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>49.60946655273438</v>
+        <v>49.60946273803711</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>51.572</v>
       </c>
       <c r="F17">
-        <v>47.52325820922852</v>
+        <v>47.52326202392578</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>51.06147384643555</v>
+        <v>51.06147766113281</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>0.7977400422096252</v>
+        <v>0.7977423667907715</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>50.398</v>
       </c>
       <c r="F23">
-        <v>46.75529861450195</v>
+        <v>46.75529479980469</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>13.20397663116455</v>
+        <v>13.20397567749023</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>5.860719203948975</v>
+        <v>5.860718250274658</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.7048652768135071</v>
+        <v>0.7048606872558594</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-2.20482873916626</v>
+        <v>-2.204833269119263</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-1.081689357757568</v>
+        <v>-1.081687092781067</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3.127713918685913</v>
+        <v>3.12770938873291</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>48.35149383544922</v>
+        <v>48.35150146484375</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>15.45845222473145</v>
+        <v>15.45845127105713</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>6.589523315429688</v>
+        <v>6.589524745941162</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>60.9577</v>
       </c>
       <c r="F48">
-        <v>42.04324722290039</v>
+        <v>42.04324340820312</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>44.08526611328125</v>
+        <v>44.08526992797852</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>46.05738830566406</v>
+        <v>46.0573844909668</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-1.068757891654968</v>
+        <v>-1.068755626678467</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.5980879068374634</v>
+        <v>0.5980856418609619</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>0.9605627655982971</v>
+        <v>0.9605650305747986</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>34.5420036315918</v>
+        <v>34.54200744628906</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.627570629119873</v>
+        <v>0.6275728940963745</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>2.634764432907104</v>
+        <v>2.634766817092896</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>11.53250885009766</v>
+        <v>11.53250789642334</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.8436805605888367</v>
+        <v>0.8436782956123352</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.1730028241872787</v>
+        <v>0.1730051040649414</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>42.44534683227539</v>
+        <v>42.44534301757812</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-0.0702214241027832</v>
+        <v>-0.07021914422512054</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>15.221360206604</v>
+        <v>15.22135925292969</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.928</v>
       </c>
       <c r="F80">
-        <v>43.69374847412109</v>
+        <v>43.69374465942383</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>40.8214</v>
       </c>
       <c r="F82">
-        <v>15.32891750335693</v>
+        <v>15.32891941070557</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-0.088322713971138</v>
+        <v>-0.08832499384880066</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.548108100891113</v>
+        <v>1.548110365867615</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>17.43086814880371</v>
+        <v>17.43086624145508</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>47.22930526733398</v>
+        <v>47.22929763793945</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.9438382983207703</v>
+        <v>0.9438474178314209</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.709314703941345</v>
+        <v>1.709312438964844</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>48.50165939331055</v>
+        <v>48.50166320800781</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.404038667678833</v>
+        <v>1.404040932655334</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>48.45999526977539</v>
+        <v>48.45998764038086</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>13.61442375183105</v>
+        <v>13.61442279815674</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>44.8161</v>
       </c>
       <c r="F102">
-        <v>50.1451301574707</v>
+        <v>50.14512634277344</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>-0.1483868062496185</v>
+        <v>-0.1483890861272812</v>
       </c>
     </row>
     <row r="105" spans="1:6">
